--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Areg-Egfr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Areg-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.31996078903403</v>
+        <v>1.484834666666667</v>
       </c>
       <c r="H2">
-        <v>1.31996078903403</v>
+        <v>4.454504</v>
       </c>
       <c r="I2">
-        <v>0.4342361098221955</v>
+        <v>0.4307162850350085</v>
       </c>
       <c r="J2">
-        <v>0.4342361098221955</v>
+        <v>0.4307162850350084</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.08032284433198</v>
+        <v>1.57413</v>
       </c>
       <c r="N2">
-        <v>1.08032284433198</v>
+        <v>4.72239</v>
       </c>
       <c r="O2">
-        <v>0.01433664785092544</v>
+        <v>0.02024862668342525</v>
       </c>
       <c r="P2">
-        <v>0.01433664785092544</v>
+        <v>0.02024862668342525</v>
       </c>
       <c r="Q2">
-        <v>1.425983794015928</v>
+        <v>2.33732279384</v>
       </c>
       <c r="R2">
-        <v>1.425983794015928</v>
+        <v>21.03590514456</v>
       </c>
       <c r="S2">
-        <v>0.006225490190676604</v>
+        <v>0.008721413262145667</v>
       </c>
       <c r="T2">
-        <v>0.006225490190676604</v>
+        <v>0.008721413262145665</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.31996078903403</v>
+        <v>1.484834666666667</v>
       </c>
       <c r="H3">
-        <v>1.31996078903403</v>
+        <v>4.454504</v>
       </c>
       <c r="I3">
-        <v>0.4342361098221955</v>
+        <v>0.4307162850350085</v>
       </c>
       <c r="J3">
-        <v>0.4342361098221955</v>
+        <v>0.4307162850350084</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>62.4982525109528</v>
+        <v>62.503947</v>
       </c>
       <c r="N3">
-        <v>62.4982525109528</v>
+        <v>187.511841</v>
       </c>
       <c r="O3">
-        <v>0.8293959923635609</v>
+        <v>0.804011796385049</v>
       </c>
       <c r="P3">
-        <v>0.8293959923635609</v>
+        <v>0.8040117963850492</v>
       </c>
       <c r="Q3">
-        <v>82.49524269760531</v>
+        <v>92.808027309096</v>
       </c>
       <c r="R3">
-        <v>82.49524269760531</v>
+        <v>835.2722457818641</v>
       </c>
       <c r="S3">
-        <v>0.360153689226072</v>
+        <v>0.346300974063292</v>
       </c>
       <c r="T3">
-        <v>0.360153689226072</v>
+        <v>0.346300974063292</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.31996078903403</v>
+        <v>1.484834666666667</v>
       </c>
       <c r="H4">
-        <v>1.31996078903403</v>
+        <v>4.454504</v>
       </c>
       <c r="I4">
-        <v>0.4342361098221955</v>
+        <v>0.4307162850350085</v>
       </c>
       <c r="J4">
-        <v>0.4342361098221955</v>
+        <v>0.4307162850350084</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>11.7753606251016</v>
+        <v>0.182903</v>
       </c>
       <c r="N4">
-        <v>11.7753606251016</v>
+        <v>0.548709</v>
       </c>
       <c r="O4">
-        <v>0.1562673597855136</v>
+        <v>0.002352750132631058</v>
       </c>
       <c r="P4">
-        <v>0.1562673597855136</v>
+        <v>0.002352750132631058</v>
       </c>
       <c r="Q4">
-        <v>15.54301430186936</v>
+        <v>0.2715807150373334</v>
       </c>
       <c r="R4">
-        <v>15.54301430186936</v>
+        <v>2.444226435336</v>
       </c>
       <c r="S4">
-        <v>0.06785693040544684</v>
+        <v>0.001013367796742473</v>
       </c>
       <c r="T4">
-        <v>0.06785693040544684</v>
+        <v>0.001013367796742473</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -717,60 +717,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.00399233403287</v>
+        <v>1.484834666666667</v>
       </c>
       <c r="H5">
-        <v>1.00399233403287</v>
+        <v>4.454504</v>
       </c>
       <c r="I5">
-        <v>0.3302899063697111</v>
+        <v>0.4307162850350085</v>
       </c>
       <c r="J5">
-        <v>0.3302899063697111</v>
+        <v>0.4307162850350084</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.08032284433198</v>
+        <v>0.09380766666666666</v>
       </c>
       <c r="N5">
-        <v>1.08032284433198</v>
+        <v>0.281423</v>
       </c>
       <c r="O5">
-        <v>0.01433664785092544</v>
+        <v>0.001206683324996365</v>
       </c>
       <c r="P5">
-        <v>0.01433664785092544</v>
+        <v>0.001206683324996365</v>
       </c>
       <c r="Q5">
-        <v>1.084635853989893</v>
+        <v>0.1392888754657778</v>
       </c>
       <c r="R5">
-        <v>1.084635853989893</v>
+        <v>1.253599879192</v>
       </c>
       <c r="S5">
-        <v>0.004735250076337685</v>
+        <v>0.000519738158956126</v>
       </c>
       <c r="T5">
-        <v>0.004735250076337685</v>
+        <v>0.0005197381589561259</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -779,55 +779,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.00399233403287</v>
+        <v>1.484834666666667</v>
       </c>
       <c r="H6">
-        <v>1.00399233403287</v>
+        <v>4.454504</v>
       </c>
       <c r="I6">
-        <v>0.3302899063697111</v>
+        <v>0.4307162850350085</v>
       </c>
       <c r="J6">
-        <v>0.3302899063697111</v>
+        <v>0.4307162850350084</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>62.4982525109528</v>
+        <v>13.38529933333333</v>
       </c>
       <c r="N6">
-        <v>62.4982525109528</v>
+        <v>40.155898</v>
       </c>
       <c r="O6">
-        <v>0.8293959923635609</v>
+        <v>0.1721801434738983</v>
       </c>
       <c r="P6">
-        <v>0.8293959923635609</v>
+        <v>0.1721801434738983</v>
       </c>
       <c r="Q6">
-        <v>62.74776641144718</v>
+        <v>19.87495647384356</v>
       </c>
       <c r="R6">
-        <v>62.74776641144718</v>
+        <v>178.874608264592</v>
       </c>
       <c r="S6">
-        <v>0.2739411246611742</v>
+        <v>0.07416079175387222</v>
       </c>
       <c r="T6">
-        <v>0.2739411246611742</v>
+        <v>0.0741607917538722</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.00399233403287</v>
+        <v>1.146843333333333</v>
       </c>
       <c r="H7">
-        <v>1.00399233403287</v>
+        <v>3.44053</v>
       </c>
       <c r="I7">
-        <v>0.3302899063697111</v>
+        <v>0.332672795927784</v>
       </c>
       <c r="J7">
-        <v>0.3302899063697111</v>
+        <v>0.332672795927784</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.7753606251016</v>
+        <v>1.57413</v>
       </c>
       <c r="N7">
-        <v>11.7753606251016</v>
+        <v>4.72239</v>
       </c>
       <c r="O7">
-        <v>0.1562673597855136</v>
+        <v>0.02024862668342525</v>
       </c>
       <c r="P7">
-        <v>0.1562673597855136</v>
+        <v>0.02024862668342525</v>
       </c>
       <c r="Q7">
-        <v>11.82237179807451</v>
+        <v>1.8052804963</v>
       </c>
       <c r="R7">
-        <v>11.82237179807451</v>
+        <v>16.2475244667</v>
       </c>
       <c r="S7">
-        <v>0.05161353163219926</v>
+        <v>0.006736167252473008</v>
       </c>
       <c r="T7">
-        <v>0.05161353163219926</v>
+        <v>0.006736167252473008</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -903,60 +903,60 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.715777473208264</v>
+        <v>1.146843333333333</v>
       </c>
       <c r="H8">
-        <v>0.715777473208264</v>
+        <v>3.44053</v>
       </c>
       <c r="I8">
-        <v>0.2354739838080934</v>
+        <v>0.332672795927784</v>
       </c>
       <c r="J8">
-        <v>0.2354739838080934</v>
+        <v>0.332672795927784</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.08032284433198</v>
+        <v>62.503947</v>
       </c>
       <c r="N8">
-        <v>1.08032284433198</v>
+        <v>187.511841</v>
       </c>
       <c r="O8">
-        <v>0.01433664785092544</v>
+        <v>0.804011796385049</v>
       </c>
       <c r="P8">
-        <v>0.01433664785092544</v>
+        <v>0.8040117963850492</v>
       </c>
       <c r="Q8">
-        <v>0.7732707557651093</v>
+        <v>71.68223492397</v>
       </c>
       <c r="R8">
-        <v>0.7732707557651093</v>
+        <v>645.14011431573</v>
       </c>
       <c r="S8">
-        <v>0.003375907583911155</v>
+        <v>0.2674728522623344</v>
       </c>
       <c r="T8">
-        <v>0.003375907583911155</v>
+        <v>0.2674728522623345</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -965,60 +965,60 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.715777473208264</v>
+        <v>1.146843333333333</v>
       </c>
       <c r="H9">
-        <v>0.715777473208264</v>
+        <v>3.44053</v>
       </c>
       <c r="I9">
-        <v>0.2354739838080934</v>
+        <v>0.332672795927784</v>
       </c>
       <c r="J9">
-        <v>0.2354739838080934</v>
+        <v>0.332672795927784</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>62.4982525109528</v>
+        <v>0.182903</v>
       </c>
       <c r="N9">
-        <v>62.4982525109528</v>
+        <v>0.548709</v>
       </c>
       <c r="O9">
-        <v>0.8293959923635609</v>
+        <v>0.002352750132631058</v>
       </c>
       <c r="P9">
-        <v>0.8293959923635609</v>
+        <v>0.002352750132631058</v>
       </c>
       <c r="Q9">
-        <v>44.73484126222184</v>
+        <v>0.2097610861966667</v>
       </c>
       <c r="R9">
-        <v>44.73484126222184</v>
+        <v>1.88784977577</v>
       </c>
       <c r="S9">
-        <v>0.1953011784763147</v>
+        <v>0.0007826959647418387</v>
       </c>
       <c r="T9">
-        <v>0.1953011784763147</v>
+        <v>0.0007826959647418387</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1027,55 +1027,427 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.146843333333333</v>
+      </c>
+      <c r="H10">
+        <v>3.44053</v>
+      </c>
+      <c r="I10">
+        <v>0.332672795927784</v>
+      </c>
+      <c r="J10">
+        <v>0.332672795927784</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.09380766666666666</v>
+      </c>
+      <c r="N10">
+        <v>0.281423</v>
+      </c>
+      <c r="O10">
+        <v>0.001206683324996365</v>
+      </c>
+      <c r="P10">
+        <v>0.001206683324996365</v>
+      </c>
+      <c r="Q10">
+        <v>0.1075826971322222</v>
+      </c>
+      <c r="R10">
+        <v>0.9682442741899999</v>
+      </c>
+      <c r="S10">
+        <v>0.0004014307155259755</v>
+      </c>
+      <c r="T10">
+        <v>0.0004014307155259755</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.715777473208264</v>
-      </c>
-      <c r="H10">
-        <v>0.715777473208264</v>
-      </c>
-      <c r="I10">
-        <v>0.2354739838080934</v>
-      </c>
-      <c r="J10">
-        <v>0.2354739838080934</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>11.7753606251016</v>
-      </c>
-      <c r="N10">
-        <v>11.7753606251016</v>
-      </c>
-      <c r="O10">
-        <v>0.1562673597855136</v>
-      </c>
-      <c r="P10">
-        <v>0.1562673597855136</v>
-      </c>
-      <c r="Q10">
-        <v>8.428537874351308</v>
-      </c>
-      <c r="R10">
-        <v>8.428537874351308</v>
-      </c>
-      <c r="S10">
-        <v>0.03679689774786755</v>
-      </c>
-      <c r="T10">
-        <v>0.03679689774786755</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.146843333333333</v>
+      </c>
+      <c r="H11">
+        <v>3.44053</v>
+      </c>
+      <c r="I11">
+        <v>0.332672795927784</v>
+      </c>
+      <c r="J11">
+        <v>0.332672795927784</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>13.38529933333333</v>
+      </c>
+      <c r="N11">
+        <v>40.155898</v>
+      </c>
+      <c r="O11">
+        <v>0.1721801434738983</v>
+      </c>
+      <c r="P11">
+        <v>0.1721801434738983</v>
+      </c>
+      <c r="Q11">
+        <v>15.35084130510444</v>
+      </c>
+      <c r="R11">
+        <v>138.15757174594</v>
+      </c>
+      <c r="S11">
+        <v>0.05727964973270872</v>
+      </c>
+      <c r="T11">
+        <v>0.05727964973270872</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.8156833333333333</v>
+      </c>
+      <c r="H12">
+        <v>2.44705</v>
+      </c>
+      <c r="I12">
+        <v>0.2366109190372076</v>
+      </c>
+      <c r="J12">
+        <v>0.2366109190372076</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.57413</v>
+      </c>
+      <c r="N12">
+        <v>4.72239</v>
+      </c>
+      <c r="O12">
+        <v>0.02024862668342525</v>
+      </c>
+      <c r="P12">
+        <v>0.02024862668342525</v>
+      </c>
+      <c r="Q12">
+        <v>1.2839916055</v>
+      </c>
+      <c r="R12">
+        <v>11.5559244495</v>
+      </c>
+      <c r="S12">
+        <v>0.004791046168806571</v>
+      </c>
+      <c r="T12">
+        <v>0.004791046168806571</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.8156833333333333</v>
+      </c>
+      <c r="H13">
+        <v>2.44705</v>
+      </c>
+      <c r="I13">
+        <v>0.2366109190372076</v>
+      </c>
+      <c r="J13">
+        <v>0.2366109190372076</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>62.503947</v>
+      </c>
+      <c r="N13">
+        <v>187.511841</v>
+      </c>
+      <c r="O13">
+        <v>0.804011796385049</v>
+      </c>
+      <c r="P13">
+        <v>0.8040117963850492</v>
+      </c>
+      <c r="Q13">
+        <v>50.98342783545</v>
+      </c>
+      <c r="R13">
+        <v>458.85085051905</v>
+      </c>
+      <c r="S13">
+        <v>0.1902379700594227</v>
+      </c>
+      <c r="T13">
+        <v>0.1902379700594227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.8156833333333333</v>
+      </c>
+      <c r="H14">
+        <v>2.44705</v>
+      </c>
+      <c r="I14">
+        <v>0.2366109190372076</v>
+      </c>
+      <c r="J14">
+        <v>0.2366109190372076</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.182903</v>
+      </c>
+      <c r="N14">
+        <v>0.548709</v>
+      </c>
+      <c r="O14">
+        <v>0.002352750132631058</v>
+      </c>
+      <c r="P14">
+        <v>0.002352750132631058</v>
+      </c>
+      <c r="Q14">
+        <v>0.1491909287166667</v>
+      </c>
+      <c r="R14">
+        <v>1.34271835845</v>
+      </c>
+      <c r="S14">
+        <v>0.0005566863711467467</v>
+      </c>
+      <c r="T14">
+        <v>0.0005566863711467467</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.8156833333333333</v>
+      </c>
+      <c r="H15">
+        <v>2.44705</v>
+      </c>
+      <c r="I15">
+        <v>0.2366109190372076</v>
+      </c>
+      <c r="J15">
+        <v>0.2366109190372076</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.09380766666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.281423</v>
+      </c>
+      <c r="O15">
+        <v>0.001206683324996365</v>
+      </c>
+      <c r="P15">
+        <v>0.001206683324996365</v>
+      </c>
+      <c r="Q15">
+        <v>0.07651735023888888</v>
+      </c>
+      <c r="R15">
+        <v>0.68865615215</v>
+      </c>
+      <c r="S15">
+        <v>0.0002855144505142633</v>
+      </c>
+      <c r="T15">
+        <v>0.0002855144505142633</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.8156833333333333</v>
+      </c>
+      <c r="H16">
+        <v>2.44705</v>
+      </c>
+      <c r="I16">
+        <v>0.2366109190372076</v>
+      </c>
+      <c r="J16">
+        <v>0.2366109190372076</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>13.38529933333333</v>
+      </c>
+      <c r="N16">
+        <v>40.155898</v>
+      </c>
+      <c r="O16">
+        <v>0.1721801434738983</v>
+      </c>
+      <c r="P16">
+        <v>0.1721801434738983</v>
+      </c>
+      <c r="Q16">
+        <v>10.91816557787778</v>
+      </c>
+      <c r="R16">
+        <v>98.26349020089999</v>
+      </c>
+      <c r="S16">
+        <v>0.04073970198731733</v>
+      </c>
+      <c r="T16">
+        <v>0.04073970198731733</v>
       </c>
     </row>
   </sheetData>
